--- a/zib2017-2020/mapping/excel/Toedieningsafspraak.xlsx
+++ b/zib2017-2020/mapping/excel/Toedieningsafspraak.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindamook/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66875539-C2A0-404F-8B27-79F9E7F88C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2880" yWindow="1880" windowWidth="33860" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ToedieningsAfspraak" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
   <si>
     <t>ZibName</t>
   </si>
@@ -61,17 +80,170 @@
     <t>TRANSLATIE_spec_terug</t>
   </si>
   <si>
+    <t>Medicatieafspraak</t>
+  </si>
+  <si>
+    <t>ZIB-911</t>
+  </si>
+  <si>
+    <t>In engelse vertaling overal Farmaceutical vervangen door Pharmaceutical (7X)</t>
+  </si>
+  <si>
+    <t>CONCEPT NAME CHANGED (EN)</t>
+  </si>
+  <si>
+    <t>Gebruiksperiode::TijdsInterval</t>
+  </si>
+  <si>
+    <t>ZIB-888</t>
+  </si>
+  <si>
+    <t>Toelichting</t>
+  </si>
+  <si>
+    <t>VALUESET CHANGES</t>
+  </si>
+  <si>
+    <t>Gebruiksinstructie</t>
+  </si>
+  <si>
+    <t>GeannuleerdIndicator</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>ZIB-1454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCEPT NAME CHANGED (EN): _::FarmaceuticalProduct-&gt; _::PharmaceuticalProduct </t>
+  </si>
+  <si>
+    <t>CONCEPT NAME CHANGED (EN): _::PharmaceuticalProduct -&gt; _::FarmaceuticalProduct</t>
+  </si>
+  <si>
     <t>Toedieningsafspraak</t>
   </si>
   <si>
-    <t>Medicatie zibs momenteel on hold</t>
+    <t>NL-CM:9.8.20132</t>
+  </si>
+  <si>
+    <t>NL-CM:9.8.20133</t>
+  </si>
+  <si>
+    <t>ToedieningsafspraakDatumTijd</t>
+  </si>
+  <si>
+    <t>NL-CM:9.8.20237</t>
+  </si>
+  <si>
+    <t>GeneesmiddelBijToedieningsAfspraak::FarmaceutischProduct</t>
+  </si>
+  <si>
+    <t>NL-CM:9.8.22097</t>
+  </si>
+  <si>
+    <t>Verstrekker::Zorgaanbieder</t>
+  </si>
+  <si>
+    <t>NL-CM:9.8.22098</t>
+  </si>
+  <si>
+    <t>NL-CM:9.8.22275</t>
+  </si>
+  <si>
+    <t>NL-CM:9.8.22394</t>
+  </si>
+  <si>
+    <t>NL-CM:9.8.22498</t>
+  </si>
+  <si>
+    <t>ToediengingsafspraakStopType</t>
+  </si>
+  <si>
+    <t>ToedieningsafspraakStopType</t>
+  </si>
+  <si>
+    <t>NL-CM:9.8.22499</t>
+  </si>
+  <si>
+    <t>RedenAfspraak</t>
+  </si>
+  <si>
+    <t>NL-CM:9.8.22660</t>
+  </si>
+  <si>
+    <t>NL-CM:9.8.23034</t>
+  </si>
+  <si>
+    <t>NL-CM:9.8.23284</t>
+  </si>
+  <si>
+    <t>ToedieningsafspraakAanvullendeInformatie</t>
+  </si>
+  <si>
+    <t>ZIB-1006</t>
+  </si>
+  <si>
+    <t>Tekstuele aanpassing typefout: ToedieningsafspraakStopType ipv ToediengingsafspraakStopType</t>
+  </si>
+  <si>
+    <t>CONCEPT NAME CHANGED (NL)</t>
+  </si>
+  <si>
+    <t>ZIB-989</t>
+  </si>
+  <si>
+    <t>Toevoeging SNOMED CT code aan rootconcept.</t>
+  </si>
+  <si>
+    <t>SNOMED coderingen met medicatieproces gelijk getrokken</t>
+  </si>
+  <si>
+    <t>De deprecated codes Drug therapy temporarily stopped en Drug therapy definitively stopped zijn vervangen door: 113371000146109 |definitief gestopt met medicatie en 113381000146106 |tijdelijk gestopt met medicatie.</t>
+  </si>
+  <si>
+    <t>ToedieningsafspraakStopTypeCodelijst</t>
+  </si>
+  <si>
+    <t>ToedieningsafspraakAanvullendeInformatieCodelijst</t>
+  </si>
+  <si>
+    <t>oranje: minor</t>
+  </si>
+  <si>
+    <t>groen: geen wijzigingen</t>
+  </si>
+  <si>
+    <t>TERMINOLOGY MAPPING CONCEPT CHANGE</t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [422037009 Instrueren door zorgverlener over toediening van medicatie] -&gt; [blank]</t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [blank] -&gt; [422037009 Instrueren door zorgverlener over toediening van medicatie]</t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [112231000146109 Reden van toedieningsinstructies] -&gt; [blank]</t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [blank] -&gt; [112231000146109 Reden van toedieningsinstructies]</t>
+  </si>
+  <si>
+    <t>ToediengingsafspraakStopType-&gt;ToedieningsafspraakStopType</t>
+  </si>
+  <si>
+    <t>ToedieningsafspraakStopType-&gt;ToediengingsafspraakStopType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,12 +260,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -111,9 +295,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -123,24 +305,248 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6857A58F-37AF-0844-853C-D07449BEE558}" name="Table1" displayName="Table1" ref="A1:O14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <autoFilter ref="A1:O14" xr:uid="{6857A58F-37AF-0844-853C-D07449BEE558}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O14">
+    <sortCondition ref="D2:D14"/>
+  </sortState>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{1A7B4B02-112E-B545-A552-8EFBCF17B8F7}" name="ZibName" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{50B22E84-DC1B-6E47-8E2E-B827113AD00A}" name="ConceptID_2017" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{078FCA97-2D35-0244-9213-F29E12CB197F}" name="ConceptName_2017" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{EB7E0D71-BAEF-A047-A851-746ADD0F48F6}" name="Codelists_2017" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{EE9120CB-50C1-4E42-AFD5-D6389532D5DA}" name="Change" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{C4B60B25-3DDB-184C-97E2-9C2E1D317EC0}" name="ConceptID_2020" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{FE8D53A8-93D9-8541-A509-555AB95DFFBF}" name="ConceptName_2020" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{39BD8A52-445D-9C4A-BD8C-30FED6FA9DEF}" name="Codelists_2020" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{59C4E602-55C0-6E49-ABB7-9A263CC3EE22}" name="Bits" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{4E61526F-6862-AA46-A432-F85E4A10F6BD}" name="Omschrijving" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{A4CD3601-98A8-594E-A455-E4A735344D40}" name="TypeChange" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{8B9CCC28-2BCA-EB4F-9B33-C32B554EE625}" name="Impact_heen" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{19A0AD34-1030-0F46-B7ED-AFAEAEED001C}" name="TRANSLATIE_spec_heen" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{C83F05E2-32D1-1F4B-8137-355EE865E389}" name="Impact_terug" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{BC09DA06-2792-4742-81C9-AE6522EB0978}" name="TRANSLATIE_spec_terug" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +584,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -212,6 +618,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -246,9 +653,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -421,14 +829,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+    <col min="4" max="4" width="68.5" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="37.1640625" customWidth="1"/>
+    <col min="10" max="10" width="54.33203125" customWidth="1"/>
+    <col min="11" max="11" width="27.1640625" customWidth="1"/>
+    <col min="12" max="12" width="40.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,31 +888,416 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
+      <c r="E8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/zib2017-2020/mapping/excel/Toedieningsafspraak.xlsx
+++ b/zib2017-2020/mapping/excel/Toedieningsafspraak.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Dropbox\development\Zibtranslate\zib2017-2020\mapping\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F96E33C-1E1F-4FB1-9944-80EC75820C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translations" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$14</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -142,9 +148,6 @@
     <t>ToedieningsafspraakAanvullendeInformatieCodelijst</t>
   </si>
   <si>
-    <t>oranje: minor</t>
-  </si>
-  <si>
     <t>groen: geen wijzigingen</t>
   </si>
   <si>
@@ -221,13 +224,16 @@
   </si>
   <si>
     <t>SCT DefintionCode [112231000146109 Reden van toedieningsinstructies] -&gt; [blank]</t>
+  </si>
+  <si>
+    <t>oranje: minor change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,7 +298,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
         </patternFill>
       </fill>
     </dxf>
@@ -306,26 +319,27 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFA003"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -363,7 +377,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -397,6 +411,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -431,9 +446,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -606,12 +622,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -620,7 +638,7 @@
     <col min="7" max="15" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -678,7 +696,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -687,28 +705,28 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -719,7 +737,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -728,7 +746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -739,7 +757,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -748,28 +766,28 @@
         <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -780,7 +798,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -789,7 +807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -800,7 +818,7 @@
         <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -809,7 +827,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -820,7 +838,7 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -829,7 +847,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -840,7 +858,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -849,7 +867,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -863,40 +881,40 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -910,34 +928,34 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -948,7 +966,7 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -957,28 +975,28 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
         <v>53</v>
       </c>
-      <c r="K11" t="s">
-        <v>54</v>
-      </c>
       <c r="L11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -989,7 +1007,7 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -998,7 +1016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1009,7 +1027,7 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
@@ -1018,7 +1036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1032,7 +1050,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
@@ -1045,18 +1063,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O14"/>
+  <autoFilter ref="A1:O14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="E2:E14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"groen: geen wijzigingen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"geel: patch wijziging"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"oranje: minor change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"rood: major change"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/zib2017-2020/mapping/excel/Toedieningsafspraak.xlsx
+++ b/zib2017-2020/mapping/excel/Toedieningsafspraak.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Dropbox\development\Zibtranslate\zib2017-2020\mapping\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F96E33C-1E1F-4FB1-9944-80EC75820C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="translations" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$14</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -148,6 +142,9 @@
     <t>ToedieningsafspraakAanvullendeInformatieCodelijst</t>
   </si>
   <si>
+    <t>oranje: minor change</t>
+  </si>
+  <si>
     <t>groen: geen wijzigingen</t>
   </si>
   <si>
@@ -224,16 +221,13 @@
   </si>
   <si>
     <t>SCT DefintionCode [112231000146109 Reden van toedieningsinstructies] -&gt; [blank]</t>
-  </si>
-  <si>
-    <t>oranje: minor change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,7 +292,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE403"/>
         </patternFill>
       </fill>
     </dxf>
@@ -312,34 +313,19 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFE403"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -377,7 +363,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -411,7 +397,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -446,10 +431,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -622,14 +606,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -638,7 +620,7 @@
     <col min="7" max="15" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -696,7 +678,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -705,28 +687,28 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -737,7 +719,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -746,7 +728,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -757,7 +739,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -766,28 +748,28 @@
         <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -798,7 +780,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -807,7 +789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -818,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -827,7 +809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -838,7 +820,7 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -847,7 +829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -858,7 +840,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -867,7 +849,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -881,40 +863,40 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -928,34 +910,34 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -966,7 +948,7 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -975,28 +957,28 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1007,7 +989,7 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -1016,7 +998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1027,7 +1009,7 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
@@ -1036,7 +1018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1050,7 +1032,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
@@ -1063,18 +1045,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O14"/>
   <conditionalFormatting sqref="E2:E14">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"groen: geen wijzigingen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"geel: patch wijziging"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"oranje: minor change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"rood: major change"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/zib2017-2020/mapping/excel/Toedieningsafspraak.xlsx
+++ b/zib2017-2020/mapping/excel/Toedieningsafspraak.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindamook/Documents/GitHub/nictiz/Zibtranslate/zib2017-2020/mapping/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125C3F47-7AC8-3245-8B34-FE76035C823D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="21940" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translations" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$14</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
   <si>
     <t>ZibName</t>
   </si>
@@ -221,13 +227,25 @@
   </si>
   <si>
     <t>SCT DefintionCode [112231000146109 Reden van toedieningsinstructies] -&gt; [blank]</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>valuesets 2017 -&gt; valueset 2020 regel</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>valuesets 2017 &lt;- valueset 2020 regel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,7 +310,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
         </patternFill>
       </fill>
     </dxf>
@@ -306,26 +331,27 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFA003"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -363,7 +389,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -397,6 +423,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -431,9 +458,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -606,21 +634,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="15" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="15" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -696,19 +726,19 @@
         <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
         <v>60</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -728,7 +758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -769,7 +799,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -789,7 +819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -809,7 +839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -829,7 +859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -849,7 +879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -896,7 +926,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -931,13 +961,19 @@
         <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="M10" t="s">
+        <v>69</v>
       </c>
       <c r="N10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>70</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -966,19 +1002,19 @@
         <v>54</v>
       </c>
       <c r="L11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M11" t="s">
         <v>63</v>
       </c>
       <c r="N11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -998,7 +1034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1018,7 +1054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1045,18 +1081,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O14"/>
+  <autoFilter ref="A1:O14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="E2:E14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"groen: geen wijzigingen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"geel: patch wijziging"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"oranje: minor change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"rood: major change"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/zib2017-2020/mapping/excel/Toedieningsafspraak.xlsx
+++ b/zib2017-2020/mapping/excel/Toedieningsafspraak.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindamook/Documents/GitHub/nictiz/Zibtranslate/zib2017-2020/mapping/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125C3F47-7AC8-3245-8B34-FE76035C823D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500A3B00-7A42-4A41-AAAE-3DADCB3408CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="21940" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$14</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
   <si>
     <t>ZibName</t>
   </si>
@@ -208,37 +221,25 @@
     <t>SCT DefintionCode [blank] -&gt; [422037009 Instrueren door zorgverlener over toediening van medicatie]</t>
   </si>
   <si>
-    <t xml:space="preserve">CONCEPT NAME CHANGED (EN): _::FarmaceuticalProduct-&gt; _::PharmaceuticalProduct </t>
-  </si>
-  <si>
-    <t>ToediengingsafspraakStopType-&gt;ToedieningsafspraakStopType</t>
-  </si>
-  <si>
     <t>SCT DefintionCode [blank] -&gt; [112231000146109 Reden van toedieningsinstructies]</t>
   </si>
   <si>
     <t>SCT DefintionCode [422037009 Instrueren door zorgverlener over toediening van medicatie] -&gt; [blank]</t>
   </si>
   <si>
-    <t>CONCEPT NAME CHANGED (EN): _::PharmaceuticalProduct -&gt; _::FarmaceuticalProduct</t>
-  </si>
-  <si>
-    <t>ToedieningsafspraakStopType-&gt;ToediengingsafspraakStopType</t>
-  </si>
-  <si>
     <t>SCT DefintionCode [112231000146109 Reden van toedieningsinstructies] -&gt; [blank]</t>
   </si>
   <si>
     <t>Low</t>
   </si>
   <si>
-    <t>valuesets 2017 -&gt; valueset 2020 regel</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>valuesets 2017 &lt;- valueset 2020 regel</t>
+    <t>source -&gt; target</t>
+  </si>
+  <si>
+    <t>existing valueset [valuesetname] changed in [baseline 2020]</t>
   </si>
 </sst>
 </file>
@@ -637,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -735,7 +736,7 @@
         <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -790,13 +791,13 @@
         <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s">
         <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -917,7 +918,7 @@
         <v>58</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
         <v>58</v>
@@ -961,16 +962,16 @@
         <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1005,13 +1006,13 @@
         <v>59</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N11" t="s">
         <v>59</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
